--- a/medicine/Psychotrope/Du_côté_de_chez_Poje/Du_côté_de_chez_Poje.xlsx
+++ b/medicine/Psychotrope/Du_côté_de_chez_Poje/Du_côté_de_chez_Poje.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Du_c%C3%B4t%C3%A9_de_chez_Poje</t>
+          <t>Du_côté_de_chez_Poje</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Du côté de chez Poje est une série de bande dessinée franco-belge, scénarisée par Raoul Cauvin et dessinée par Louis-Michel Carpentier. Elle fait suite à L’Année de la bière, des mêmes auteurs, mettant en scène le même personnage central. Les albums ont aussi été édités en néerlandais (Bij Sjaak, tussen pot en pint) et en dialecte Bruxellois (In d'environs van bij Poje)
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Du_c%C3%B4t%C3%A9_de_chez_Poje</t>
+          <t>Du_côté_de_chez_Poje</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette série relate avec humour les déboires d'un patron de café bruxellois, Poje, et de sa femme, Micheline.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Du_c%C3%B4t%C3%A9_de_chez_Poje</t>
+          <t>Du_côté_de_chez_Poje</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Liste des albums</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’Année de la bière
 L’Année de la bière (1986)
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Du_c%C3%B4t%C3%A9_de_chez_Poje</t>
+          <t>Du_côté_de_chez_Poje</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Éditeurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Archers : L’Année de la bière tomes 1 et 2 (première édition des tomes 1 et 2)
 Dupuis : tomes 1 à 20 (première édition des tomes 1 à 20)
